--- a/Lab6/RESULTADOS DE LAS MUESTRAS.xlsx
+++ b/Lab6/RESULTADOS DE LAS MUESTRAS.xlsx
@@ -60,9 +60,6 @@
     <t>Sistema Experto.txt</t>
   </si>
   <si>
-    <t>Tiempo (s)</t>
-  </si>
-  <si>
     <t>Porcentaje de plagio (%)</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>LENGUAJE NATURAL</t>
+  </si>
+  <si>
+    <t>Tiempo proceso (s)</t>
   </si>
 </sst>
 </file>
@@ -205,13 +205,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,7 +509,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -524,36 +524,36 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1">
-      <c r="G2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="2:10" ht="45">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:10">
@@ -572,8 +572,8 @@
       <c r="H4" s="6">
         <v>99</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="7" t="s">
@@ -591,8 +591,8 @@
       <c r="H5" s="6">
         <v>35</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="7" t="s">
@@ -606,8 +606,8 @@
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="7" t="s">
@@ -619,8 +619,8 @@
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="7" t="s">
@@ -632,8 +632,8 @@
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="7" t="s">
@@ -645,8 +645,8 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="7" t="s">
@@ -658,8 +658,8 @@
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="7" t="s">
@@ -671,8 +671,8 @@
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="7" t="s">
@@ -684,8 +684,8 @@
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="7" t="s">
@@ -697,8 +697,8 @@
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="2:10">
       <c r="E14" s="6">
@@ -707,8 +707,8 @@
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="2:10">
       <c r="E15" s="6">
@@ -717,8 +717,8 @@
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="2:10">
       <c r="E16" s="6">
@@ -727,8 +727,8 @@
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" s="6">
@@ -737,8 +737,8 @@
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" s="6">
@@ -747,8 +747,8 @@
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" s="6">
@@ -757,8 +757,8 @@
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" s="6">
@@ -767,8 +767,8 @@
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" s="6">
@@ -777,8 +777,8 @@
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" s="6">
@@ -787,8 +787,8 @@
       <c r="F22" s="5"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" s="6">
@@ -797,8 +797,8 @@
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" s="6">
@@ -807,8 +807,8 @@
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" s="6">
@@ -817,8 +817,8 @@
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" s="6">
@@ -827,8 +827,8 @@
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" s="6">
@@ -837,8 +837,8 @@
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" s="6">
@@ -847,8 +847,8 @@
       <c r="F28" s="5"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" s="6">
@@ -857,8 +857,8 @@
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" s="6">
@@ -867,8 +867,8 @@
       <c r="F30" s="5"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" s="6">
@@ -877,8 +877,8 @@
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" s="6">
@@ -887,8 +887,8 @@
       <c r="F32" s="5"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" s="6">
@@ -897,8 +897,8 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" s="6">
@@ -907,8 +907,8 @@
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" s="6">
@@ -917,8 +917,8 @@
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" s="6">
@@ -927,8 +927,8 @@
       <c r="F36" s="5"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" s="6">
@@ -937,8 +937,8 @@
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" s="6">
@@ -947,8 +947,8 @@
       <c r="F38" s="5"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" s="6">
@@ -957,8 +957,8 @@
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" s="6">
@@ -967,8 +967,8 @@
       <c r="F40" s="5"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" s="6">
@@ -977,8 +977,8 @@
       <c r="F41" s="5"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" s="6">
@@ -987,8 +987,8 @@
       <c r="F42" s="5"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" s="6">
@@ -997,8 +997,8 @@
       <c r="F43" s="5"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" s="6">
@@ -1007,8 +1007,8 @@
       <c r="F44" s="5"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" s="6">
@@ -1017,8 +1017,8 @@
       <c r="F45" s="5"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
     </row>
     <row r="46" spans="5:10">
       <c r="E46" s="6">
@@ -1027,8 +1027,8 @@
       <c r="F46" s="5"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
     </row>
     <row r="47" spans="5:10">
       <c r="E47" s="6">
@@ -1037,8 +1037,8 @@
       <c r="F47" s="5"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
     </row>
     <row r="48" spans="5:10">
       <c r="E48" s="6">
@@ -1047,8 +1047,8 @@
       <c r="F48" s="5"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
     </row>
     <row r="49" spans="5:10">
       <c r="E49" s="6">
@@ -1057,8 +1057,8 @@
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
     </row>
     <row r="50" spans="5:10">
       <c r="E50" s="6">
@@ -1067,8 +1067,8 @@
       <c r="F50" s="5"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
     </row>
     <row r="51" spans="5:10">
       <c r="E51" s="6">
@@ -1077,8 +1077,8 @@
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
     </row>
     <row r="52" spans="5:10">
       <c r="E52" s="6">
@@ -1087,8 +1087,8 @@
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
     </row>
     <row r="53" spans="5:10">
       <c r="E53" s="6">
@@ -1097,8 +1097,8 @@
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="3"/>

--- a/Lab6/RESULTADOS DE LAS MUESTRAS.xlsx
+++ b/Lab6/RESULTADOS DE LAS MUESTRAS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>Algoritmos.txt</t>
   </si>
@@ -42,9 +42,6 @@
     <t>CompresionV0.txt</t>
   </si>
   <si>
-    <t>Desenredadndo la madeja V1.txt</t>
-  </si>
-  <si>
     <t>Espacio vectorial V0.txt</t>
   </si>
   <si>
@@ -76,6 +73,36 @@
   </si>
   <si>
     <t>Tiempo proceso (s)</t>
+  </si>
+  <si>
+    <t>Tiempo proceso (ms)</t>
+  </si>
+  <si>
+    <t>Desenredando la madeja V1.txt</t>
+  </si>
+  <si>
+    <t>Articulo SRI REVISTA.txt</t>
+  </si>
+  <si>
+    <t>CLEI 2007.txt</t>
+  </si>
+  <si>
+    <t>Cuadro de Mando Integral.txt</t>
+  </si>
+  <si>
+    <t>Compresion internet.txt</t>
+  </si>
+  <si>
+    <t>Recuperacion de informacion.txt</t>
+  </si>
+  <si>
+    <t>Formato articulos CLEI.txt</t>
+  </si>
+  <si>
+    <t>Diagnostico tuberculosis Procesamiento.txt</t>
+  </si>
+  <si>
+    <t>Informe final SRI.txt</t>
   </si>
 </sst>
 </file>
@@ -181,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -211,6 +238,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,7 +539,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -517,19 +547,19 @@
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1">
       <c r="G2" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="11"/>
     </row>
@@ -538,22 +568,22 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:10">
@@ -572,8 +602,12 @@
       <c r="H4" s="6">
         <v>99</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="I4" s="9">
+        <v>476</v>
+      </c>
+      <c r="J4" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="7" t="s">
@@ -583,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -591,8 +625,12 @@
       <c r="H5" s="6">
         <v>35</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="I5" s="9">
+        <v>1810</v>
+      </c>
+      <c r="J5" s="9">
+        <v>97</v>
+      </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="7" t="s">
@@ -602,12 +640,16 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="I6" s="9">
+        <v>142</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="7" t="s">
@@ -616,191 +658,345 @@
       <c r="E7" s="6">
         <v>4</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="I7" s="9">
+        <v>171</v>
+      </c>
+      <c r="J7" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="7" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E8" s="6">
         <v>5</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="I8" s="9">
+        <v>133</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="6">
         <v>6</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="I9" s="9">
+        <v>1066</v>
+      </c>
+      <c r="J9" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="6">
         <v>7</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="I10" s="9">
+        <v>877</v>
+      </c>
+      <c r="J10" s="9">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="6">
         <v>8</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="I11" s="9">
+        <v>584</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="6">
         <v>9</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="I12" s="9">
+        <v>605</v>
+      </c>
+      <c r="J12" s="9">
+        <v>91</v>
+      </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="7" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="6">
         <v>10</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="I13" s="9">
+        <v>684</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:10">
+      <c r="B14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="6">
         <v>11</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="I14" s="9">
+        <v>2336</v>
+      </c>
+      <c r="J14" s="9">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="2:10">
+      <c r="B15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="6">
         <v>12</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="I15" s="9">
+        <v>3244</v>
+      </c>
+      <c r="J15" s="9">
+        <v>86</v>
+      </c>
     </row>
     <row r="16" spans="2:10">
+      <c r="B16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="6">
         <v>13</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="5:10">
+      <c r="I16" s="9">
+        <v>2090</v>
+      </c>
+      <c r="J16" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="6">
         <v>14</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="5:10">
+      <c r="I17" s="9">
+        <v>146</v>
+      </c>
+      <c r="J17" s="9">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="6">
         <v>15</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="5:10">
+      <c r="I18" s="9">
+        <v>590</v>
+      </c>
+      <c r="J18" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="6">
         <v>16</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="5:10">
+      <c r="I19" s="9">
+        <v>452</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="6">
         <v>17</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="5:10">
+      <c r="I20" s="9">
+        <v>81</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="6">
         <v>18</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="5:10">
+      <c r="I21" s="9">
+        <v>2276</v>
+      </c>
+      <c r="J21" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="6">
         <v>19</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="5:10">
+      <c r="I22" s="9">
+        <v>3636</v>
+      </c>
+      <c r="J22" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="6">
         <v>20</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="5:10">
+      <c r="I23" s="9">
+        <v>817</v>
+      </c>
+      <c r="J23" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
       <c r="E24" s="6">
         <v>21</v>
       </c>
@@ -810,7 +1006,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="5:10">
+    <row r="25" spans="2:10">
       <c r="E25" s="6">
         <v>22</v>
       </c>
@@ -820,7 +1016,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="5:10">
+    <row r="26" spans="2:10">
       <c r="E26" s="6">
         <v>23</v>
       </c>
@@ -830,7 +1026,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="5:10">
+    <row r="27" spans="2:10">
       <c r="E27" s="6">
         <v>24</v>
       </c>
@@ -840,7 +1036,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="5:10">
+    <row r="28" spans="2:10">
       <c r="E28" s="6">
         <v>25</v>
       </c>
@@ -850,7 +1046,7 @@
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="5:10">
+    <row r="29" spans="2:10">
       <c r="E29" s="6">
         <v>26</v>
       </c>
@@ -860,7 +1056,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="5:10">
+    <row r="30" spans="2:10">
       <c r="E30" s="6">
         <v>27</v>
       </c>
@@ -870,7 +1066,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="5:10">
+    <row r="31" spans="2:10">
       <c r="E31" s="6">
         <v>28</v>
       </c>
@@ -880,7 +1076,7 @@
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="5:10">
+    <row r="32" spans="2:10">
       <c r="E32" s="6">
         <v>29</v>
       </c>

--- a/Lab6/RESULTADOS DE LAS MUESTRAS.xlsx
+++ b/Lab6/RESULTADOS DE LAS MUESTRAS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>Algoritmos.txt</t>
   </si>
@@ -103,6 +103,21 @@
   </si>
   <si>
     <t>Informe final SRI.txt</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Para los ms</t>
+  </si>
+  <si>
+    <t>Para el porcentaje</t>
   </si>
 </sst>
 </file>
@@ -142,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -204,11 +219,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,15 +307,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J67"/>
+  <dimension ref="B1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -554,14 +637,14 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1">
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="11"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="2:10" ht="45">
       <c r="B3" s="2" t="s">
@@ -787,7 +870,7 @@
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="7"/>
@@ -808,7 +891,7 @@
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="7"/>
@@ -829,7 +912,7 @@
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="7"/>
@@ -850,7 +933,7 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="7"/>
@@ -871,7 +954,7 @@
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="7"/>
@@ -892,7 +975,7 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="7"/>
@@ -913,7 +996,7 @@
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="7"/>
@@ -934,7 +1017,7 @@
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="7"/>
@@ -955,7 +1038,7 @@
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="7"/>
@@ -976,7 +1059,7 @@
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="7"/>
@@ -1246,7 +1329,7 @@
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="5:10">
+    <row r="49" spans="5:11">
       <c r="E49" s="6">
         <v>46</v>
       </c>
@@ -1256,7 +1339,7 @@
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
     </row>
-    <row r="50" spans="5:10">
+    <row r="50" spans="5:11">
       <c r="E50" s="6">
         <v>47</v>
       </c>
@@ -1266,7 +1349,7 @@
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
     </row>
-    <row r="51" spans="5:10">
+    <row r="51" spans="5:11">
       <c r="E51" s="6">
         <v>48</v>
       </c>
@@ -1276,7 +1359,7 @@
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
     </row>
-    <row r="52" spans="5:10">
+    <row r="52" spans="5:11">
       <c r="E52" s="6">
         <v>49</v>
       </c>
@@ -1286,7 +1369,7 @@
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
     </row>
-    <row r="53" spans="5:10">
+    <row r="53" spans="5:11">
       <c r="E53" s="6">
         <v>50</v>
       </c>
@@ -1296,6 +1379,107 @@
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
     </row>
+    <row r="54" spans="5:11" ht="15.75" thickBot="1"/>
+    <row r="55" spans="5:11">
+      <c r="F55" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="14"/>
+      <c r="J55" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="14"/>
+    </row>
+    <row r="56" spans="5:11">
+      <c r="G56" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" s="17"/>
+      <c r="I56" s="16">
+        <v>20</v>
+      </c>
+      <c r="J56" s="15"/>
+      <c r="K56" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="5:11">
+      <c r="G57" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" s="17"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="16">
+        <f>AVERAGE(I4:I23)</f>
+        <v>1110.8</v>
+      </c>
+    </row>
+    <row r="58" spans="5:11">
+      <c r="G58" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="16">
+        <f>STDEV(I4:I23)</f>
+        <v>1075.3122728819412</v>
+      </c>
+    </row>
+    <row r="59" spans="5:11" ht="15.75" thickBot="1"/>
+    <row r="60" spans="5:11" ht="15.75" thickBot="1">
+      <c r="F60" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="12"/>
+      <c r="J60" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" s="12"/>
+    </row>
+    <row r="61" spans="5:11">
+      <c r="G61" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" s="17"/>
+      <c r="I61" s="16">
+        <v>20</v>
+      </c>
+      <c r="J61" s="15"/>
+      <c r="K61" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="5:11">
+      <c r="G62" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" s="17"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="16">
+        <f>AVERAGE(J4:J23)</f>
+        <v>28.85</v>
+      </c>
+    </row>
+    <row r="63" spans="5:11">
+      <c r="G63" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="16">
+        <f>STDEV(J4:J23)</f>
+        <v>39.94242567022004</v>
+      </c>
+    </row>
     <row r="66" spans="2:4">
       <c r="B66" s="3"/>
       <c r="C66" s="1"/>
@@ -1307,9 +1491,13 @@
       <c r="D67" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Lab6/RESULTADOS DE LAS MUESTRAS.xlsx
+++ b/Lab6/RESULTADOS DE LAS MUESTRAS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>Algoritmos.txt</t>
   </si>
@@ -114,10 +114,31 @@
     <t>S</t>
   </si>
   <si>
-    <t>Para los ms</t>
-  </si>
-  <si>
     <t>Para el porcentaje</t>
+  </si>
+  <si>
+    <t>gl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t= </t>
+  </si>
+  <si>
+    <t>Según la formula:</t>
+  </si>
+  <si>
+    <t>Para los ms:</t>
+  </si>
+  <si>
+    <t>Rechazar Ho si:</t>
+  </si>
+  <si>
+    <t>t &gt; 2.0244</t>
+  </si>
+  <si>
+    <t>(     por tabla con gl= 38 y P[X&lt;=c]=0.975   )</t>
+  </si>
+  <si>
+    <t>RPTA:    Como t&lt;2.0244 se acepta Ho</t>
   </si>
 </sst>
 </file>
@@ -157,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -278,11 +299,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -310,6 +340,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -322,9 +355,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K67"/>
+  <dimension ref="B1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65"/>
+    <sheetView tabSelected="1" topLeftCell="D47" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -637,14 +671,14 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1">
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="12"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="2:10" ht="45">
       <c r="B3" s="2" t="s">
@@ -1329,7 +1363,7 @@
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="5:11">
+    <row r="49" spans="5:14">
       <c r="E49" s="6">
         <v>46</v>
       </c>
@@ -1339,7 +1373,7 @@
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
     </row>
-    <row r="50" spans="5:11">
+    <row r="50" spans="5:14">
       <c r="E50" s="6">
         <v>47</v>
       </c>
@@ -1349,7 +1383,7 @@
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
     </row>
-    <row r="51" spans="5:11">
+    <row r="51" spans="5:14">
       <c r="E51" s="6">
         <v>48</v>
       </c>
@@ -1359,7 +1393,7 @@
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
     </row>
-    <row r="52" spans="5:11">
+    <row r="52" spans="5:14">
       <c r="E52" s="6">
         <v>49</v>
       </c>
@@ -1369,7 +1403,7 @@
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
     </row>
-    <row r="53" spans="5:11">
+    <row r="53" spans="5:14">
       <c r="E53" s="6">
         <v>50</v>
       </c>
@@ -1379,121 +1413,167 @@
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="5:11" ht="15.75" thickBot="1"/>
-    <row r="55" spans="5:11">
+    <row r="54" spans="5:14" ht="15.75" thickBot="1"/>
+    <row r="55" spans="5:14">
       <c r="F55" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H55" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="14"/>
-      <c r="J55" s="13" t="s">
+      <c r="I55" s="17"/>
+      <c r="J55" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K55" s="14"/>
-    </row>
-    <row r="56" spans="5:11">
+      <c r="K55" s="19"/>
+      <c r="L55" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="5:14">
       <c r="G56" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H56" s="17"/>
-      <c r="I56" s="16">
+      <c r="H56" s="13"/>
+      <c r="I56" s="12">
         <v>20</v>
       </c>
-      <c r="J56" s="15"/>
-      <c r="K56" s="16">
+      <c r="J56" s="11"/>
+      <c r="K56" s="13">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="5:11">
+      <c r="L56" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="5:14">
       <c r="G57" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H57" s="17"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="16">
+      <c r="H57" s="13"/>
+      <c r="I57">
+        <v>1200.44</v>
+      </c>
+      <c r="J57" s="11"/>
+      <c r="K57" s="12">
         <f>AVERAGE(I4:I23)</f>
         <v>1110.8</v>
       </c>
     </row>
-    <row r="58" spans="5:11">
+    <row r="58" spans="5:14">
       <c r="G58" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="16">
+      <c r="H58" s="11"/>
+      <c r="I58" s="12">
+        <v>1001.34</v>
+      </c>
+      <c r="J58" s="11"/>
+      <c r="K58" s="12">
         <f>STDEV(I4:I23)</f>
         <v>1075.3122728819412</v>
       </c>
     </row>
-    <row r="59" spans="5:11" ht="15.75" thickBot="1"/>
-    <row r="60" spans="5:11" ht="15.75" thickBot="1">
+    <row r="60" spans="5:14">
       <c r="F60" t="s">
-        <v>33</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" s="12"/>
-      <c r="J60" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K60" s="12"/>
-    </row>
-    <row r="61" spans="5:11">
-      <c r="G61" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H61" s="17"/>
-      <c r="I61" s="16">
-        <v>20</v>
-      </c>
-      <c r="J61" s="15"/>
-      <c r="K61" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="5:11">
-      <c r="G62" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H62" s="17"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="16">
-        <f>AVERAGE(J4:J23)</f>
-        <v>28.85</v>
-      </c>
-    </row>
-    <row r="63" spans="5:11">
-      <c r="G63" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="16">
-        <f>STDEV(J4:J23)</f>
-        <v>39.94242567022004</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
+        <v>35</v>
+      </c>
+      <c r="H60">
+        <f>(I57-K57)</f>
+        <v>89.6400000000001</v>
+      </c>
+      <c r="I60">
+        <f>SQRT((POWER(I58,2)/I56)+(POWER(K58,2)/K56))</f>
+        <v>328.55580042136876</v>
+      </c>
+    </row>
+    <row r="61" spans="5:14">
+      <c r="G61" t="s">
+        <v>34</v>
+      </c>
+      <c r="H61">
+        <f>H60/I60</f>
+        <v>0.27283036819023709</v>
+      </c>
+    </row>
+    <row r="63" spans="5:14">
+      <c r="F63" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" t="s">
+        <v>38</v>
+      </c>
+      <c r="H63" t="s">
+        <v>39</v>
+      </c>
+      <c r="L63" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+    </row>
+    <row r="66" spans="2:11" ht="15.75" thickBot="1">
       <c r="B66" s="3"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="2:4">
+    <row r="67" spans="2:11" ht="15.75" thickBot="1">
       <c r="B67" s="3"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
+      <c r="F67" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="15"/>
+      <c r="J67" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="15"/>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="G68" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="13"/>
+      <c r="I68" s="12">
+        <v>20</v>
+      </c>
+      <c r="J68" s="11"/>
+      <c r="K68" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="G69" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" s="13"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="12">
+        <f>AVERAGE(J4:J23)</f>
+        <v>28.85</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="G70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" s="11"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="12">
+        <f>STDEV(J4:J23)</f>
+        <v>39.94242567022004</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="H55:I55"/>

--- a/Lab6/RESULTADOS DE LAS MUESTRAS.xlsx
+++ b/Lab6/RESULTADOS DE LAS MUESTRAS.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
-  <si>
-    <t>Algoritmos.txt</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>Documentos de la BD</t>
   </si>
@@ -30,33 +27,18 @@
     <t>Articulo PLN V0.txt</t>
   </si>
   <si>
-    <t>algoritmos.txt</t>
-  </si>
-  <si>
     <t>Articulo SRI.txt</t>
   </si>
   <si>
-    <t>Biometria.txt</t>
-  </si>
-  <si>
     <t>CompresionV0.txt</t>
   </si>
   <si>
     <t>Espacio vectorial V0.txt</t>
   </si>
   <si>
-    <t>Motor de Búsqueda 1.txt</t>
-  </si>
-  <si>
-    <t>Reconocimiento de voz.txt</t>
-  </si>
-  <si>
     <t>SegmentacionV1.txt</t>
   </si>
   <si>
-    <t>Sistema Experto.txt</t>
-  </si>
-  <si>
     <t>Porcentaje de plagio (%)</t>
   </si>
   <si>
@@ -78,18 +60,12 @@
     <t>Tiempo proceso (ms)</t>
   </si>
   <si>
-    <t>Desenredando la madeja V1.txt</t>
-  </si>
-  <si>
     <t>Articulo SRI REVISTA.txt</t>
   </si>
   <si>
     <t>CLEI 2007.txt</t>
   </si>
   <si>
-    <t>Cuadro de Mando Integral.txt</t>
-  </si>
-  <si>
     <t>Compresion internet.txt</t>
   </si>
   <si>
@@ -99,9 +75,6 @@
     <t>Formato articulos CLEI.txt</t>
   </si>
   <si>
-    <t>Diagnostico tuberculosis Procesamiento.txt</t>
-  </si>
-  <si>
     <t>Informe final SRI.txt</t>
   </si>
   <si>
@@ -139,6 +112,120 @@
   </si>
   <si>
     <t>RPTA:    Como t&lt;2.0244 se acepta Ho</t>
+  </si>
+  <si>
+    <t>algoritmos.TXT</t>
+  </si>
+  <si>
+    <t>Articulo PLN V1.txt</t>
+  </si>
+  <si>
+    <t>Articulo SRI internet.txt</t>
+  </si>
+  <si>
+    <t>Articulo SRI V1.txt</t>
+  </si>
+  <si>
+    <t>Articulo SRI V2.txt</t>
+  </si>
+  <si>
+    <t>Articulo SRI V3.txt</t>
+  </si>
+  <si>
+    <t>Biometria wikipedia.txt</t>
+  </si>
+  <si>
+    <t>Biometria.TXT</t>
+  </si>
+  <si>
+    <t>CompresionV1.txt</t>
+  </si>
+  <si>
+    <t>CompresionV2.txt</t>
+  </si>
+  <si>
+    <t>CompresionV3.txt</t>
+  </si>
+  <si>
+    <t>CompresionV4.txt</t>
+  </si>
+  <si>
+    <t>CompresionV5.txt</t>
+  </si>
+  <si>
+    <t>Cuadro de Mando Integral.TXT</t>
+  </si>
+  <si>
+    <t>Desenredadndo la madeja V1.txt</t>
+  </si>
+  <si>
+    <t>Desenredadndo la madeja V2.txt</t>
+  </si>
+  <si>
+    <t>Diagnostico tuberculosis Procesamiento.TXT</t>
+  </si>
+  <si>
+    <t>Espacio vectorial V1.txt</t>
+  </si>
+  <si>
+    <t>Espacio vectorial V2.txt</t>
+  </si>
+  <si>
+    <t>Espacio vectorial V3.txt</t>
+  </si>
+  <si>
+    <t>Espacio vectorial V4.txt</t>
+  </si>
+  <si>
+    <t>Espacio vectorial V6.txt</t>
+  </si>
+  <si>
+    <t>Evaluacion VAN RIJSBERGEN.txt</t>
+  </si>
+  <si>
+    <t>introducci¢n a los sistemas de recuperaci¢n de informaci¢n.txt</t>
+  </si>
+  <si>
+    <t>Motor de B£squeda 1.TXT</t>
+  </si>
+  <si>
+    <t>Motores de busqueda 2.TXT</t>
+  </si>
+  <si>
+    <t>Reconocimiento de voz 1.TXT</t>
+  </si>
+  <si>
+    <t>Reconocimiento de voz 2.TXT</t>
+  </si>
+  <si>
+    <t>Reconocimiento de voz wikipedia.txt</t>
+  </si>
+  <si>
+    <t>Reconocimiento de voz.TXT</t>
+  </si>
+  <si>
+    <t>SegmentacionV2.txt</t>
+  </si>
+  <si>
+    <t>SegmentacionV3.txt</t>
+  </si>
+  <si>
+    <t>SegmentacionV4.txt</t>
+  </si>
+  <si>
+    <t>SegmentacionV5.txt</t>
+  </si>
+  <si>
+    <t>SegmentacionV6.txt</t>
+  </si>
+  <si>
+    <t>SegmentacionV7.txt</t>
+  </si>
+  <si>
+    <t>SegmentacionV8.txt</t>
+  </si>
+  <si>
+    <t>Sistema Experto.TXT</t>
   </si>
 </sst>
 </file>
@@ -343,6 +430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -355,7 +443,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -655,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D47" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -666,52 +753,50 @@
     <col min="3" max="3" width="7.42578125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="59.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1">
-      <c r="G2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="15"/>
+      <c r="G2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="2:10" ht="45">
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="J3" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="B4" s="7"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G4" s="6">
         <v>1</v>
@@ -719,22 +804,16 @@
       <c r="H4" s="6">
         <v>99</v>
       </c>
-      <c r="I4" s="9">
-        <v>476</v>
-      </c>
-      <c r="J4" s="9">
-        <v>3</v>
-      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="B5" s="7"/>
       <c r="E5" s="6">
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -742,382 +821,272 @@
       <c r="H5" s="6">
         <v>35</v>
       </c>
-      <c r="I5" s="9">
-        <v>1810</v>
-      </c>
-      <c r="J5" s="9">
-        <v>97</v>
-      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="B6" s="7"/>
       <c r="E6" s="6">
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="9">
-        <v>142</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="B7" s="7"/>
       <c r="E7" s="6">
         <v>4</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="9">
-        <v>171</v>
-      </c>
-      <c r="J7" s="9">
-        <v>100</v>
-      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="B8" s="7"/>
       <c r="E8" s="6">
         <v>5</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="9">
-        <v>133</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="B9" s="7"/>
       <c r="E9" s="6">
         <v>6</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="9">
-        <v>1066</v>
-      </c>
-      <c r="J9" s="9">
-        <v>4</v>
-      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="B10" s="7"/>
       <c r="E10" s="6">
         <v>7</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="9">
-        <v>877</v>
-      </c>
-      <c r="J10" s="9">
-        <v>18</v>
-      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="B11" s="7"/>
       <c r="E11" s="6">
         <v>8</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="9">
-        <v>584</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="B12" s="7"/>
       <c r="E12" s="6">
         <v>9</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="9">
-        <v>605</v>
-      </c>
-      <c r="J12" s="9">
-        <v>91</v>
-      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="6">
         <v>10</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="9">
-        <v>684</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="B14" s="10"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="6">
         <v>11</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="9">
-        <v>2336</v>
-      </c>
-      <c r="J14" s="9">
-        <v>53</v>
-      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="B15" s="10"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="6">
         <v>12</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="9">
-        <v>3244</v>
-      </c>
-      <c r="J15" s="9">
-        <v>86</v>
-      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="B16" s="10"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="6">
         <v>13</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="9">
-        <v>2090</v>
-      </c>
-      <c r="J16" s="9">
-        <v>7</v>
-      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="B17" s="10"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="6">
         <v>14</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="9">
-        <v>146</v>
-      </c>
-      <c r="J17" s="9">
-        <v>91</v>
-      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="B18" s="10"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="6">
         <v>15</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="9">
-        <v>590</v>
-      </c>
-      <c r="J18" s="9">
-        <v>2</v>
-      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="B19" s="10"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="6">
         <v>16</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="9">
-        <v>452</v>
-      </c>
-      <c r="J19" s="9">
-        <v>0</v>
-      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="B20" s="10"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="6">
         <v>17</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="9">
-        <v>81</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0</v>
-      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="B21" s="10"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="6">
         <v>18</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="9">
-        <v>2276</v>
-      </c>
-      <c r="J21" s="9">
-        <v>4</v>
-      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="B22" s="10"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="6">
         <v>19</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="9">
-        <v>3636</v>
-      </c>
-      <c r="J22" s="9">
-        <v>19</v>
-      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="B23" s="10"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="6">
         <v>20</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="9">
-        <v>817</v>
-      </c>
-      <c r="J23" s="9">
-        <v>2</v>
-      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="2:10">
       <c r="E24" s="6">
         <v>21</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="9"/>
@@ -1127,7 +1096,9 @@
       <c r="E25" s="6">
         <v>22</v>
       </c>
-      <c r="F25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="9"/>
@@ -1137,7 +1108,9 @@
       <c r="E26" s="6">
         <v>23</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="9"/>
@@ -1147,7 +1120,9 @@
       <c r="E27" s="6">
         <v>24</v>
       </c>
-      <c r="F27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="9"/>
@@ -1157,7 +1132,9 @@
       <c r="E28" s="6">
         <v>25</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="9"/>
@@ -1167,7 +1144,9 @@
       <c r="E29" s="6">
         <v>26</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="9"/>
@@ -1177,7 +1156,9 @@
       <c r="E30" s="6">
         <v>27</v>
       </c>
-      <c r="F30" s="5"/>
+      <c r="F30" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="9"/>
@@ -1187,7 +1168,9 @@
       <c r="E31" s="6">
         <v>28</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="9"/>
@@ -1197,7 +1180,9 @@
       <c r="E32" s="6">
         <v>29</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="9"/>
@@ -1207,7 +1192,9 @@
       <c r="E33" s="6">
         <v>30</v>
       </c>
-      <c r="F33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="9"/>
@@ -1217,7 +1204,9 @@
       <c r="E34" s="6">
         <v>31</v>
       </c>
-      <c r="F34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="9"/>
@@ -1227,7 +1216,9 @@
       <c r="E35" s="6">
         <v>32</v>
       </c>
-      <c r="F35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="9"/>
@@ -1237,7 +1228,9 @@
       <c r="E36" s="6">
         <v>33</v>
       </c>
-      <c r="F36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="9"/>
@@ -1247,7 +1240,9 @@
       <c r="E37" s="6">
         <v>34</v>
       </c>
-      <c r="F37" s="5"/>
+      <c r="F37" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="9"/>
@@ -1257,7 +1252,9 @@
       <c r="E38" s="6">
         <v>35</v>
       </c>
-      <c r="F38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="9"/>
@@ -1267,7 +1264,9 @@
       <c r="E39" s="6">
         <v>36</v>
       </c>
-      <c r="F39" s="5"/>
+      <c r="F39" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="9"/>
@@ -1277,7 +1276,9 @@
       <c r="E40" s="6">
         <v>37</v>
       </c>
-      <c r="F40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="9"/>
@@ -1287,7 +1288,9 @@
       <c r="E41" s="6">
         <v>38</v>
       </c>
-      <c r="F41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="9"/>
@@ -1297,7 +1300,9 @@
       <c r="E42" s="6">
         <v>39</v>
       </c>
-      <c r="F42" s="5"/>
+      <c r="F42" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="9"/>
@@ -1307,7 +1312,9 @@
       <c r="E43" s="6">
         <v>40</v>
       </c>
-      <c r="F43" s="5"/>
+      <c r="F43" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="9"/>
@@ -1317,7 +1324,9 @@
       <c r="E44" s="6">
         <v>41</v>
       </c>
-      <c r="F44" s="5"/>
+      <c r="F44" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="9"/>
@@ -1327,7 +1336,9 @@
       <c r="E45" s="6">
         <v>42</v>
       </c>
-      <c r="F45" s="5"/>
+      <c r="F45" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="9"/>
@@ -1337,7 +1348,9 @@
       <c r="E46" s="6">
         <v>43</v>
       </c>
-      <c r="F46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="9"/>
@@ -1347,7 +1360,9 @@
       <c r="E47" s="6">
         <v>44</v>
       </c>
-      <c r="F47" s="5"/>
+      <c r="F47" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="9"/>
@@ -1357,7 +1372,9 @@
       <c r="E48" s="6">
         <v>45</v>
       </c>
-      <c r="F48" s="5"/>
+      <c r="F48" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="9"/>
@@ -1367,7 +1384,9 @@
       <c r="E49" s="6">
         <v>46</v>
       </c>
-      <c r="F49" s="5"/>
+      <c r="F49" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="9"/>
@@ -1377,7 +1396,9 @@
       <c r="E50" s="6">
         <v>47</v>
       </c>
-      <c r="F50" s="5"/>
+      <c r="F50" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="9"/>
@@ -1387,7 +1408,9 @@
       <c r="E51" s="6">
         <v>48</v>
       </c>
-      <c r="F51" s="5"/>
+      <c r="F51" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="9"/>
@@ -1397,7 +1420,9 @@
       <c r="E52" s="6">
         <v>49</v>
       </c>
-      <c r="F52" s="5"/>
+      <c r="F52" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="9"/>
@@ -1407,7 +1432,9 @@
       <c r="E53" s="6">
         <v>50</v>
       </c>
-      <c r="F53" s="5"/>
+      <c r="F53" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="9"/>
@@ -1416,23 +1443,23 @@
     <row r="54" spans="5:14" ht="15.75" thickBot="1"/>
     <row r="55" spans="5:14">
       <c r="F55" t="s">
-        <v>36</v>
-      </c>
-      <c r="H55" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="17"/>
-      <c r="J55" s="16" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="18"/>
+      <c r="J55" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="K55" s="19"/>
       <c r="L55" s="6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="5:14">
       <c r="G56" s="9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="12">
@@ -1448,69 +1475,69 @@
     </row>
     <row r="57" spans="5:14">
       <c r="G57" s="9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57">
         <v>1200.44</v>
       </c>
       <c r="J57" s="11"/>
-      <c r="K57" s="12">
+      <c r="K57" s="12" t="e">
         <f>AVERAGE(I4:I23)</f>
-        <v>1110.8</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="58" spans="5:14">
       <c r="G58" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H58" s="11"/>
       <c r="I58" s="12">
         <v>1001.34</v>
       </c>
       <c r="J58" s="11"/>
-      <c r="K58" s="12">
+      <c r="K58" s="12" t="e">
         <f>STDEV(I4:I23)</f>
-        <v>1075.3122728819412</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="60" spans="5:14">
       <c r="F60" t="s">
-        <v>35</v>
-      </c>
-      <c r="H60">
+        <v>26</v>
+      </c>
+      <c r="H60" t="e">
         <f>(I57-K57)</f>
-        <v>89.6400000000001</v>
-      </c>
-      <c r="I60">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I60" t="e">
         <f>SQRT((POWER(I58,2)/I56)+(POWER(K58,2)/K56))</f>
-        <v>328.55580042136876</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="61" spans="5:14">
       <c r="G61" t="s">
-        <v>34</v>
-      </c>
-      <c r="H61">
+        <v>25</v>
+      </c>
+      <c r="H61" t="e">
         <f>H60/I60</f>
-        <v>0.27283036819023709</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="63" spans="5:14">
       <c r="F63" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H63" t="s">
-        <v>39</v>
-      </c>
-      <c r="L63" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="L63" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
     </row>
     <row r="66" spans="2:11" ht="15.75" thickBot="1">
       <c r="B66" s="3"/>
@@ -1522,20 +1549,20 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="F67" t="s">
-        <v>32</v>
-      </c>
-      <c r="H67" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I67" s="15"/>
-      <c r="J67" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K67" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="16"/>
+      <c r="J67" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="16"/>
     </row>
     <row r="68" spans="2:11">
       <c r="G68" s="9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H68" s="13"/>
       <c r="I68" s="12">
@@ -1548,26 +1575,26 @@
     </row>
     <row r="69" spans="2:11">
       <c r="G69" s="9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H69" s="13"/>
       <c r="I69" s="12"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="12">
+      <c r="K69" s="12" t="e">
         <f>AVERAGE(J4:J23)</f>
-        <v>28.85</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="70" spans="2:11">
       <c r="G70" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H70" s="11"/>
       <c r="I70" s="12"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="12">
+      <c r="K70" s="12" t="e">
         <f>STDEV(J4:J23)</f>
-        <v>39.94242567022004</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/Lab6/RESULTADOS DE LAS MUESTRAS.xlsx
+++ b/Lab6/RESULTADOS DE LAS MUESTRAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="17715" windowHeight="6945"/>
+    <workbookView xWindow="9975" yWindow="240" windowWidth="9345" windowHeight="6945"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -753,7 +753,7 @@
     <col min="3" max="3" width="7.42578125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="59.140625" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
@@ -798,14 +798,14 @@
       <c r="F4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6">
-        <v>99</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="7"/>
@@ -815,14 +815,14 @@
       <c r="F5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>35</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="9">
+        <v>186</v>
+      </c>
+      <c r="J5" s="9">
+        <v>91</v>
+      </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="7"/>
@@ -834,8 +834,12 @@
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="I6" s="9">
+        <v>3617</v>
+      </c>
+      <c r="J6" s="9">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="7"/>
@@ -847,8 +851,12 @@
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="I7" s="9">
+        <v>1560</v>
+      </c>
+      <c r="J7" s="9">
+        <v>97</v>
+      </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="7"/>
@@ -860,8 +868,12 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="I8" s="9">
+        <v>265</v>
+      </c>
+      <c r="J8" s="9">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="7"/>
@@ -873,8 +885,12 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="I9" s="9">
+        <v>366</v>
+      </c>
+      <c r="J9" s="9">
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="7"/>
@@ -886,8 +902,12 @@
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="I10" s="9">
+        <v>4025</v>
+      </c>
+      <c r="J10" s="9">
+        <v>92</v>
+      </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="7"/>
@@ -899,8 +919,12 @@
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="I11" s="9">
+        <v>2231</v>
+      </c>
+      <c r="J11" s="9">
+        <v>96</v>
+      </c>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="7"/>
@@ -912,8 +936,12 @@
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="I12" s="9">
+        <v>2980</v>
+      </c>
+      <c r="J12" s="9">
+        <v>97</v>
+      </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="7"/>
@@ -927,8 +955,12 @@
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="I13" s="9">
+        <v>3853</v>
+      </c>
+      <c r="J13" s="9">
+        <v>97</v>
+      </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="10"/>
@@ -942,8 +974,12 @@
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="I14" s="9">
+        <v>297</v>
+      </c>
+      <c r="J14" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="10"/>
@@ -957,8 +993,12 @@
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="I15" s="9">
+        <v>328</v>
+      </c>
+      <c r="J15" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="10"/>
@@ -972,8 +1012,12 @@
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="I16" s="9">
+        <v>2855</v>
+      </c>
+      <c r="J16" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="10"/>
@@ -987,8 +1031,12 @@
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="I17" s="9">
+        <v>702</v>
+      </c>
+      <c r="J17" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="10"/>
@@ -1002,8 +1050,12 @@
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="I18" s="9">
+        <v>468</v>
+      </c>
+      <c r="J18" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="10"/>
@@ -1017,8 +1069,12 @@
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="I19" s="9">
+        <v>920</v>
+      </c>
+      <c r="J19" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="10"/>
@@ -1032,8 +1088,12 @@
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="I20" s="9">
+        <v>967</v>
+      </c>
+      <c r="J20" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="10"/>
@@ -1047,8 +1107,12 @@
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="I21" s="9">
+        <v>2278</v>
+      </c>
+      <c r="J21" s="9">
+        <v>97</v>
+      </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="10"/>
@@ -1062,8 +1126,12 @@
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="I22" s="9">
+        <v>3370</v>
+      </c>
+      <c r="J22" s="9">
+        <v>66</v>
+      </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="10"/>
@@ -1077,8 +1145,12 @@
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="I23" s="9">
+        <v>2558</v>
+      </c>
+      <c r="J23" s="9">
+        <v>85</v>
+      </c>
     </row>
     <row r="24" spans="2:10">
       <c r="E24" s="6">
@@ -1089,8 +1161,12 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="I24" s="9">
+        <v>531</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="2:10">
       <c r="E25" s="6">
@@ -1101,8 +1177,12 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="I25" s="9">
+        <v>265</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="2:10">
       <c r="E26" s="6">
@@ -1113,8 +1193,12 @@
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="I26" s="9">
+        <v>1716</v>
+      </c>
+      <c r="J26" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="2:10">
       <c r="E27" s="6">
@@ -1125,8 +1209,12 @@
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="I27" s="9">
+        <v>920</v>
+      </c>
+      <c r="J27" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="2:10">
       <c r="E28" s="6">
@@ -1137,8 +1225,12 @@
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="I28" s="9">
+        <v>1263</v>
+      </c>
+      <c r="J28" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="2:10">
       <c r="E29" s="6">
@@ -1149,8 +1241,12 @@
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
+      <c r="I29" s="9">
+        <v>968</v>
+      </c>
+      <c r="J29" s="9">
+        <v>65</v>
+      </c>
     </row>
     <row r="30" spans="2:10">
       <c r="E30" s="6">
@@ -1161,8 +1257,12 @@
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
+      <c r="I30" s="9">
+        <v>702</v>
+      </c>
+      <c r="J30" s="9">
+        <v>22</v>
+      </c>
     </row>
     <row r="31" spans="2:10">
       <c r="E31" s="6">
@@ -1173,8 +1273,12 @@
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+      <c r="I31" s="9">
+        <v>171</v>
+      </c>
+      <c r="J31" s="9">
+        <v>72</v>
+      </c>
     </row>
     <row r="32" spans="2:10">
       <c r="E32" s="6">
@@ -1185,8 +1289,12 @@
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="I32" s="9">
+        <v>156</v>
+      </c>
+      <c r="J32" s="9">
+        <v>34</v>
+      </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" s="6">
@@ -1197,8 +1305,12 @@
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+      <c r="I33" s="9">
+        <v>702</v>
+      </c>
+      <c r="J33" s="9">
+        <v>33</v>
+      </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" s="6">
@@ -1209,8 +1321,12 @@
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="I34" s="9">
+        <v>686</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" s="6">
@@ -1221,8 +1337,12 @@
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
+      <c r="I35" s="9">
+        <v>94</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" s="6">
@@ -1233,8 +1353,12 @@
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
+      <c r="I36" s="9">
+        <v>2496</v>
+      </c>
+      <c r="J36" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" s="6">
@@ -1281,8 +1405,12 @@
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
+      <c r="I40" s="9">
+        <v>796</v>
+      </c>
+      <c r="J40" s="9">
+        <v>86</v>
+      </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" s="6">
@@ -1293,8 +1421,12 @@
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
+      <c r="I41" s="9">
+        <v>1653</v>
+      </c>
+      <c r="J41" s="9">
+        <v>11</v>
+      </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" s="6">
@@ -1305,8 +1437,12 @@
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
+      <c r="I42" s="9">
+        <v>234</v>
+      </c>
+      <c r="J42" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" s="6">
@@ -1317,8 +1453,12 @@
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
+      <c r="I43" s="9">
+        <v>1295</v>
+      </c>
+      <c r="J43" s="9">
+        <v>71</v>
+      </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" s="6">
@@ -1341,8 +1481,12 @@
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
+      <c r="I45" s="9">
+        <v>1295</v>
+      </c>
+      <c r="J45" s="9">
+        <v>91</v>
+      </c>
     </row>
     <row r="46" spans="5:10">
       <c r="E46" s="6">
@@ -1353,8 +1497,12 @@
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
+      <c r="I46" s="9">
+        <v>1326</v>
+      </c>
+      <c r="J46" s="9">
+        <v>96</v>
+      </c>
     </row>
     <row r="47" spans="5:10">
       <c r="E47" s="6">
@@ -1365,8 +1513,12 @@
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
+      <c r="I47" s="9">
+        <v>1202</v>
+      </c>
+      <c r="J47" s="9">
+        <v>97</v>
+      </c>
     </row>
     <row r="48" spans="5:10">
       <c r="E48" s="6">
@@ -1377,8 +1529,12 @@
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
+      <c r="I48" s="9">
+        <v>1358</v>
+      </c>
+      <c r="J48" s="9">
+        <v>97</v>
+      </c>
     </row>
     <row r="49" spans="5:14">
       <c r="E49" s="6">
@@ -1389,8 +1545,12 @@
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
+      <c r="I49" s="9">
+        <v>1606</v>
+      </c>
+      <c r="J49" s="9">
+        <v>94</v>
+      </c>
     </row>
     <row r="50" spans="5:14">
       <c r="E50" s="6">
@@ -1401,8 +1561,12 @@
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
+      <c r="I50" s="9">
+        <v>2777</v>
+      </c>
+      <c r="J50" s="9">
+        <v>92</v>
+      </c>
     </row>
     <row r="51" spans="5:14">
       <c r="E51" s="6">
@@ -1413,8 +1577,12 @@
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
+      <c r="I51" s="9">
+        <v>2667</v>
+      </c>
+      <c r="J51" s="9">
+        <v>96</v>
+      </c>
     </row>
     <row r="52" spans="5:14">
       <c r="E52" s="6">
@@ -1425,8 +1593,12 @@
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
+      <c r="I52" s="9">
+        <v>2621</v>
+      </c>
+      <c r="J52" s="9">
+        <v>95</v>
+      </c>
     </row>
     <row r="53" spans="5:14">
       <c r="E53" s="6">
@@ -1437,8 +1609,12 @@
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
+      <c r="I53" s="9">
+        <v>1497</v>
+      </c>
+      <c r="J53" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="5:14" ht="15.75" thickBot="1"/>
     <row r="55" spans="5:14">
@@ -1482,9 +1658,9 @@
         <v>1200.44</v>
       </c>
       <c r="J57" s="11"/>
-      <c r="K57" s="12" t="e">
+      <c r="K57" s="12">
         <f>AVERAGE(I4:I23)</f>
-        <v>#DIV/0!</v>
+        <v>1741.3</v>
       </c>
     </row>
     <row r="58" spans="5:14">
@@ -1496,31 +1672,31 @@
         <v>1001.34</v>
       </c>
       <c r="J58" s="11"/>
-      <c r="K58" s="12" t="e">
+      <c r="K58" s="12">
         <f>STDEV(I4:I23)</f>
-        <v>#DIV/0!</v>
+        <v>1356.1988326511016</v>
       </c>
     </row>
     <row r="60" spans="5:14">
       <c r="F60" t="s">
         <v>26</v>
       </c>
-      <c r="H60" t="e">
+      <c r="H60">
         <f>(I57-K57)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I60" t="e">
+        <v>-540.8599999999999</v>
+      </c>
+      <c r="I60">
         <f>SQRT((POWER(I58,2)/I56)+(POWER(K58,2)/K56))</f>
-        <v>#DIV/0!</v>
+        <v>376.95868933373924</v>
       </c>
     </row>
     <row r="61" spans="5:14">
       <c r="G61" t="s">
         <v>25</v>
       </c>
-      <c r="H61" t="e">
+      <c r="H61">
         <f>H60/I60</f>
-        <v>#DIV/0!</v>
+        <v>-1.4347991313211277</v>
       </c>
     </row>
     <row r="63" spans="5:14">
@@ -1580,9 +1756,9 @@
       <c r="H69" s="13"/>
       <c r="I69" s="12"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="12" t="e">
+      <c r="K69" s="12">
         <f>AVERAGE(J4:J23)</f>
-        <v>#DIV/0!</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="70" spans="2:11">
@@ -1592,9 +1768,9 @@
       <c r="H70" s="11"/>
       <c r="I70" s="12"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="12" t="e">
+      <c r="K70" s="12">
         <f>STDEV(J4:J23)</f>
-        <v>#DIV/0!</v>
+        <v>39.689054569636433</v>
       </c>
     </row>
   </sheetData>

--- a/Lab6/RESULTADOS DE LAS MUESTRAS.xlsx
+++ b/Lab6/RESULTADOS DE LAS MUESTRAS.xlsx
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1369,8 +1369,12 @@
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
+      <c r="I37" s="9">
+        <v>6162</v>
+      </c>
+      <c r="J37" s="9">
+        <v>57</v>
+      </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" s="6">
@@ -1381,8 +1385,12 @@
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
+      <c r="I38" s="9">
+        <v>1872</v>
+      </c>
+      <c r="J38" s="9">
+        <v>22</v>
+      </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" s="6">
@@ -1393,8 +1401,12 @@
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
+      <c r="I39" s="9">
+        <v>749</v>
+      </c>
+      <c r="J39" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" s="6">
@@ -1469,8 +1481,12 @@
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
+      <c r="I44" s="9">
+        <v>4290</v>
+      </c>
+      <c r="J44" s="9">
+        <v>72</v>
+      </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" s="6">

--- a/Lab6/RESULTADOS DE LAS MUESTRAS.xlsx
+++ b/Lab6/RESULTADOS DE LAS MUESTRAS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>Documentos de la BD</t>
   </si>
@@ -105,15 +105,6 @@
     <t>Rechazar Ho si:</t>
   </si>
   <si>
-    <t>t &gt; 2.0244</t>
-  </si>
-  <si>
-    <t>(     por tabla con gl= 38 y P[X&lt;=c]=0.975   )</t>
-  </si>
-  <si>
-    <t>RPTA:    Como t&lt;2.0244 se acepta Ho</t>
-  </si>
-  <si>
     <t>algoritmos.TXT</t>
   </si>
   <si>
@@ -226,6 +217,15 @@
   </si>
   <si>
     <t>Sistema Experto.TXT</t>
+  </si>
+  <si>
+    <t>t &gt; 1.9845</t>
+  </si>
+  <si>
+    <t>RPTA:    Como t&lt;1.9845 se acepta Ho</t>
+  </si>
+  <si>
+    <t>(     por tabla con gl= 98 y P[X&lt;=c]=0.975   )</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -446,6 +446,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N70"/>
+  <dimension ref="B1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -796,12 +797,12 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="9">
-        <v>1000</v>
+        <v>686</v>
       </c>
       <c r="J4" s="9">
         <v>5</v>
@@ -847,7 +848,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -864,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -898,12 +899,12 @@
         <v>7</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="9">
-        <v>4025</v>
+        <v>3853</v>
       </c>
       <c r="J10" s="9">
         <v>92</v>
@@ -915,7 +916,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -932,7 +933,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -970,7 +971,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -989,7 +990,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -1032,10 +1033,10 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="9">
-        <v>702</v>
+        <v>608</v>
       </c>
       <c r="J17" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -1065,7 +1066,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1084,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -1103,7 +1104,7 @@
         <v>18</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -1122,7 +1123,7 @@
         <v>19</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1141,7 +1142,7 @@
         <v>20</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1157,7 +1158,7 @@
         <v>21</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1173,7 +1174,7 @@
         <v>22</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1189,7 +1190,7 @@
         <v>23</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1205,7 +1206,7 @@
         <v>24</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1237,7 +1238,7 @@
         <v>26</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -1253,7 +1254,7 @@
         <v>27</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -1269,7 +1270,7 @@
         <v>28</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -1285,7 +1286,7 @@
         <v>29</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -1301,7 +1302,7 @@
         <v>30</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -1317,7 +1318,7 @@
         <v>31</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -1365,7 +1366,7 @@
         <v>34</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -1381,7 +1382,7 @@
         <v>35</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -1397,7 +1398,7 @@
         <v>36</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -1413,7 +1414,7 @@
         <v>37</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -1429,7 +1430,7 @@
         <v>38</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -1445,7 +1446,7 @@
         <v>39</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -1461,7 +1462,7 @@
         <v>40</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -1509,7 +1510,7 @@
         <v>43</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -1525,7 +1526,7 @@
         <v>44</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -1541,7 +1542,7 @@
         <v>45</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -1557,7 +1558,7 @@
         <v>46</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -1573,7 +1574,7 @@
         <v>47</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -1589,7 +1590,7 @@
         <v>48</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -1605,7 +1606,7 @@
         <v>49</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -1621,7 +1622,7 @@
         <v>50</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -1655,14 +1656,14 @@
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J56" s="11"/>
       <c r="K56" s="13">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L56" s="9">
-        <v>38</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="5:14">
@@ -1670,13 +1671,13 @@
         <v>21</v>
       </c>
       <c r="H57" s="13"/>
-      <c r="I57">
+      <c r="I57" s="7">
         <v>1200.44</v>
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="12">
-        <f>AVERAGE(I4:I23)</f>
-        <v>1741.3</v>
+        <f>AVERAGE(I4:I53)</f>
+        <v>1566.32</v>
       </c>
     </row>
     <row r="58" spans="5:14">
@@ -1684,13 +1685,13 @@
         <v>22</v>
       </c>
       <c r="H58" s="11"/>
-      <c r="I58" s="12">
+      <c r="I58" s="20">
         <v>1001.34</v>
       </c>
       <c r="J58" s="11"/>
       <c r="K58" s="12">
-        <f>STDEV(I4:I23)</f>
-        <v>1356.1988326511016</v>
+        <f>STDEV(I4:I53)</f>
+        <v>1310.1927174025559</v>
       </c>
     </row>
     <row r="60" spans="5:14">
@@ -1698,12 +1699,12 @@
         <v>26</v>
       </c>
       <c r="H60">
-        <f>(I57-K57)</f>
-        <v>-540.8599999999999</v>
+        <f>(K57-I57)</f>
+        <v>365.87999999999988</v>
       </c>
       <c r="I60">
         <f>SQRT((POWER(I58,2)/I56)+(POWER(K58,2)/K56))</f>
-        <v>376.95868933373924</v>
+        <v>233.20749354747133</v>
       </c>
     </row>
     <row r="61" spans="5:14">
@@ -1712,7 +1713,7 @@
       </c>
       <c r="H61">
         <f>H60/I60</f>
-        <v>-1.4347991313211277</v>
+        <v>1.5689032733655359</v>
       </c>
     </row>
     <row r="63" spans="5:14">
@@ -1720,23 +1721,23 @@
         <v>28</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="H63" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="L63" s="14" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="M63" s="14"/>
       <c r="N63" s="14"/>
     </row>
-    <row r="66" spans="2:11" ht="15.75" thickBot="1">
+    <row r="66" spans="2:14" ht="15.75" thickBot="1">
       <c r="B66" s="3"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="2:11" ht="15.75" thickBot="1">
+    <row r="67" spans="2:14" ht="15.75" thickBot="1">
       <c r="B67" s="3"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1752,42 +1753,84 @@
       </c>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:14">
       <c r="G68" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H68" s="13"/>
       <c r="I68" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J68" s="11"/>
       <c r="K68" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14">
       <c r="G69" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H69" s="13"/>
-      <c r="I69" s="12"/>
+      <c r="I69" s="20">
+        <v>63</v>
+      </c>
       <c r="J69" s="11"/>
       <c r="K69" s="12">
-        <f>AVERAGE(J4:J23)</f>
-        <v>65.8</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11">
+        <f>AVERAGE(J4:J53)</f>
+        <v>52.96</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14">
       <c r="G70" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H70" s="11"/>
-      <c r="I70" s="12"/>
+      <c r="I70" s="20">
+        <v>35</v>
+      </c>
       <c r="J70" s="11"/>
       <c r="K70" s="12">
-        <f>STDEV(J4:J23)</f>
-        <v>39.689054569636433</v>
-      </c>
+        <f>STDEV(J4:J53)</f>
+        <v>40.887081937792473</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="F72" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72">
+        <f>(I69-K69)</f>
+        <v>10.039999999999999</v>
+      </c>
+      <c r="I72">
+        <f>SQRT((POWER(I70,2)/I68)+(POWER(K70,2)/K68))</f>
+        <v>7.6115090085839823</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="G73" t="s">
+        <v>25</v>
+      </c>
+      <c r="H73">
+        <f>H72/I72</f>
+        <v>1.3190551293675477</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14">
+      <c r="F75" t="s">
+        <v>28</v>
+      </c>
+      <c r="G75" t="s">
+        <v>67</v>
+      </c>
+      <c r="H75" t="s">
+        <v>69</v>
+      </c>
+      <c r="L75" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Lab6/RESULTADOS DE LAS MUESTRAS.xlsx
+++ b/Lab6/RESULTADOS DE LAS MUESTRAS.xlsx
@@ -885,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
-      <selection activeCell="N72" sqref="N72"/>
+    <sheetView tabSelected="1" topLeftCell="D52" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Lab6/RESULTADOS DE LAS MUESTRAS.xlsx
+++ b/Lab6/RESULTADOS DE LAS MUESTRAS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="71">
   <si>
     <t>Documentos de la BD</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>(     por tabla con gl= 98 y P[X&lt;=c]=0.975   )</t>
+  </si>
+  <si>
+    <t>Secuencia Maximales</t>
+  </si>
+  <si>
+    <t>Lenguaje Natural</t>
   </si>
 </sst>
 </file>
@@ -254,7 +260,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,8 +273,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -512,11 +524,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -589,6 +655,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,6 +674,2184 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-PE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.2967378884136749E-2"/>
+          <c:y val="1.4957156090782769E-2"/>
+          <c:w val="0.70541981166236833"/>
+          <c:h val="0.42932800679326849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Secuencia Maximales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja2!$B$2:$C$52</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="51"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Documento a comparar contra la BD</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>algoritmos.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Arte evaluacion.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Articulo PLN V0.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Articulo PLN V1.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Articulo SRI internet.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Articulo SRI REVISTA.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Articulo SRI V1.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Articulo SRI V2.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Articulo SRI V3.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Articulo SRI.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Biometria wikipedia.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Biometria.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>CLEI 2007.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Compresion internet.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>CompresionV0.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>CompresionV1.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>CompresionV2.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>CompresionV3.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>CompresionV4.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>CompresionV5.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Cuadro de Mando Integral.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Desenredadndo la madeja V1.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Desenredadndo la madeja V2.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Diagnostico tuberculosis Procesamiento.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Espacio vectorial V0.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Espacio vectorial V1.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Espacio vectorial V2.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Espacio vectorial V3.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Espacio vectorial V4.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Espacio vectorial V6.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Evaluacion VAN RIJSBERGEN.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Formato articulos CLEI.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Informe final SRI.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>introducci¢n a los sistemas de recuperaci¢n de informaci¢n.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Motor de B£squeda 1.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Motores de busqueda 2.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Reconocimiento de voz 1.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Reconocimiento de voz 2.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Reconocimiento de voz wikipedia.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Reconocimiento de voz.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Recuperacion de informacion.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>SegmentacionV1.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>SegmentacionV2.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>SegmentacionV3.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>SegmentacionV4.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>SegmentacionV5.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>SegmentacionV6.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>SegmentacionV7.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>SegmentacionV8.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Sistema Experto.TXT</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Item Nro.</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>37</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>38</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>43</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>46</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>49</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>50</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$D$2:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1592</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35136</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82660</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7943</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76794</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92471</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33925</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52088</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14351</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14066</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46217</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24530</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24048</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45116</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78221</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>107678</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>86935</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6938</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1829</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4243</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32074</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14266</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>31406</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17531</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14485</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12594</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>138969</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24906</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50172</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>34891</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4187</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3219</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31164</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16359</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24812</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>58796</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>52422</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42063</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>56578</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>62375</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>78219</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>94219</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>97938</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lenguaje Natural</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja2!$B$2:$C$52</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="51"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Documento a comparar contra la BD</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>algoritmos.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Arte evaluacion.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Articulo PLN V0.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Articulo PLN V1.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Articulo SRI internet.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Articulo SRI REVISTA.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Articulo SRI V1.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Articulo SRI V2.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Articulo SRI V3.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Articulo SRI.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Biometria wikipedia.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Biometria.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>CLEI 2007.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Compresion internet.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>CompresionV0.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>CompresionV1.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>CompresionV2.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>CompresionV3.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>CompresionV4.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>CompresionV5.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Cuadro de Mando Integral.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Desenredadndo la madeja V1.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Desenredadndo la madeja V2.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Diagnostico tuberculosis Procesamiento.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Espacio vectorial V0.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Espacio vectorial V1.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Espacio vectorial V2.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Espacio vectorial V3.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Espacio vectorial V4.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Espacio vectorial V6.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Evaluacion VAN RIJSBERGEN.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Formato articulos CLEI.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Informe final SRI.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>introducci¢n a los sistemas de recuperaci¢n de informaci¢n.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Motor de B£squeda 1.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Motores de busqueda 2.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Reconocimiento de voz 1.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Reconocimiento de voz 2.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Reconocimiento de voz wikipedia.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Reconocimiento de voz.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Recuperacion de informacion.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>SegmentacionV1.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>SegmentacionV2.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>SegmentacionV3.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>SegmentacionV4.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>SegmentacionV5.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>SegmentacionV6.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>SegmentacionV7.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>SegmentacionV8.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Sistema Experto.TXT</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Item Nro.</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>37</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>38</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>43</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>46</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>49</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>50</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$E$2:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>686</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3617</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3853</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2231</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2980</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3853</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2855</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2278</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3370</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2558</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1716</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1263</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>686</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2496</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6162</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1872</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1653</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1295</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4290</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1295</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1326</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1358</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1606</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2777</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2667</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="84519168"/>
+        <c:axId val="74261248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="84519168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74261248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74261248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84519168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-PE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Secuencia Maximales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja3!$B$2:$C$52</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="51"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Documento a comparar contra la BD</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>algoritmos.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Arte evaluacion.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Articulo PLN V0.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Articulo PLN V1.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Articulo SRI internet.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Articulo SRI REVISTA.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Articulo SRI V1.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Articulo SRI V2.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Articulo SRI V3.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Articulo SRI.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Biometria wikipedia.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Biometria.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>CLEI 2007.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Compresion internet.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>CompresionV0.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>CompresionV1.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>CompresionV2.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>CompresionV3.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>CompresionV4.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>CompresionV5.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Cuadro de Mando Integral.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Desenredadndo la madeja V1.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Desenredadndo la madeja V2.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Diagnostico tuberculosis Procesamiento.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Espacio vectorial V0.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Espacio vectorial V1.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Espacio vectorial V2.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Espacio vectorial V3.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Espacio vectorial V4.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Espacio vectorial V6.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Evaluacion VAN RIJSBERGEN.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Formato articulos CLEI.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Informe final SRI.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>introducci¢n a los sistemas de recuperaci¢n de informaci¢n.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Motor de B£squeda 1.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Motores de busqueda 2.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Reconocimiento de voz 1.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Reconocimiento de voz 2.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Reconocimiento de voz wikipedia.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Reconocimiento de voz.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Recuperacion de informacion.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>SegmentacionV1.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>SegmentacionV2.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>SegmentacionV3.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>SegmentacionV4.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>SegmentacionV5.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>SegmentacionV6.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>SegmentacionV7.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>SegmentacionV8.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Sistema Experto.TXT</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Item Nro.</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>37</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>38</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>43</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>46</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>49</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>50</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja3!$D$2:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lenguaje Natural</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja3!$B$2:$C$52</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="51"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Documento a comparar contra la BD</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>algoritmos.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Arte evaluacion.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Articulo PLN V0.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Articulo PLN V1.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Articulo SRI internet.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Articulo SRI REVISTA.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Articulo SRI V1.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Articulo SRI V2.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Articulo SRI V3.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Articulo SRI.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Biometria wikipedia.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Biometria.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>CLEI 2007.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Compresion internet.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>CompresionV0.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>CompresionV1.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>CompresionV2.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>CompresionV3.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>CompresionV4.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>CompresionV5.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Cuadro de Mando Integral.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Desenredadndo la madeja V1.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Desenredadndo la madeja V2.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Diagnostico tuberculosis Procesamiento.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Espacio vectorial V0.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Espacio vectorial V1.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Espacio vectorial V2.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Espacio vectorial V3.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Espacio vectorial V4.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Espacio vectorial V6.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Evaluacion VAN RIJSBERGEN.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Formato articulos CLEI.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Informe final SRI.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>introducci¢n a los sistemas de recuperaci¢n de informaci¢n.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Motor de B£squeda 1.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Motores de busqueda 2.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Reconocimiento de voz 1.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Reconocimiento de voz 2.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Reconocimiento de voz wikipedia.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Reconocimiento de voz.TXT</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Recuperacion de informacion.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>SegmentacionV1.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>SegmentacionV2.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>SegmentacionV3.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>SegmentacionV4.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>SegmentacionV5.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>SegmentacionV6.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>SegmentacionV7.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>SegmentacionV8.txt</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Sistema Experto.TXT</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Item Nro.</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>37</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>38</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>43</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>46</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>49</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>50</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja3!$E$2:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="98871168"/>
+        <c:axId val="74289920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="98871168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74289920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74289920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98871168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>352423</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -885,8 +3141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D52" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2204,24 +4460,1490 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="N2" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1">
+      <c r="D1" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="30">
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="16">
+        <v>19262</v>
+      </c>
+      <c r="E3" s="10">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1592</v>
+      </c>
+      <c r="E4" s="10">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="16">
+        <v>44828</v>
+      </c>
+      <c r="E5" s="10">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="16">
+        <v>35136</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="16">
+        <v>82660</v>
+      </c>
+      <c r="E7" s="10">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="16">
+        <v>7943</v>
+      </c>
+      <c r="E8" s="10">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="5">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="16">
+        <v>76794</v>
+      </c>
+      <c r="E9" s="10">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="5">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="16">
+        <v>92471</v>
+      </c>
+      <c r="E10" s="10">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="5">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="16">
+        <v>33925</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="5">
+        <v>10</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="16">
+        <v>52088</v>
+      </c>
+      <c r="E12" s="10">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="5">
+        <v>11</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="16">
+        <v>14351</v>
+      </c>
+      <c r="E13" s="10">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="5">
+        <v>12</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="16">
+        <v>14066</v>
+      </c>
+      <c r="E14" s="10">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="5">
+        <v>13</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="16">
+        <v>46217</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="5">
+        <v>14</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="16">
+        <v>38987</v>
+      </c>
+      <c r="E16" s="10">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="5">
+        <v>15</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="16">
+        <v>24530</v>
+      </c>
+      <c r="E17" s="10">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="5">
+        <v>16</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="16">
+        <v>24048</v>
+      </c>
+      <c r="E18" s="10">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="5">
+        <v>17</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="16">
+        <v>45116</v>
+      </c>
+      <c r="E19" s="10">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="5">
+        <v>18</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="16">
+        <v>78221</v>
+      </c>
+      <c r="E20" s="10">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="5">
+        <v>19</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="16">
+        <v>107678</v>
+      </c>
+      <c r="E21" s="10">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="5">
+        <v>20</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="16">
+        <v>86935</v>
+      </c>
+      <c r="E22" s="10">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="5">
+        <v>21</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="16">
+        <v>6938</v>
+      </c>
+      <c r="E23" s="10">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="5">
+        <v>22</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="16">
+        <v>1829</v>
+      </c>
+      <c r="E24" s="10">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="5">
+        <v>23</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="16">
+        <v>4243</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="5">
+        <v>24</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="16">
+        <v>32074</v>
+      </c>
+      <c r="E26" s="10">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="5">
+        <v>25</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="16">
+        <v>56375</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="5">
+        <v>26</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="16">
+        <v>14266</v>
+      </c>
+      <c r="E28" s="10">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="5">
+        <v>27</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="16">
+        <v>31406</v>
+      </c>
+      <c r="E29" s="10">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="5">
+        <v>28</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="16">
+        <v>17531</v>
+      </c>
+      <c r="E30" s="10">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="5">
+        <v>29</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="16">
+        <v>14485</v>
+      </c>
+      <c r="E31" s="10">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="5">
+        <v>30</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="16">
+        <v>16015</v>
+      </c>
+      <c r="E32" s="10">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="5">
+        <v>31</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="16">
+        <v>12594</v>
+      </c>
+      <c r="E33" s="10">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="5">
+        <v>32</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="16">
+        <v>7125</v>
+      </c>
+      <c r="E34" s="10">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="5">
+        <v>33</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="16">
+        <v>138969</v>
+      </c>
+      <c r="E35" s="10">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="5">
+        <v>34</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="16">
+        <v>24906</v>
+      </c>
+      <c r="E36" s="10">
+        <v>6162</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="5">
+        <v>35</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="16">
+        <v>50172</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="5">
+        <v>36</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="16">
+        <v>34891</v>
+      </c>
+      <c r="E38" s="10">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="5">
+        <v>37</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="16">
+        <v>4187</v>
+      </c>
+      <c r="E39" s="10">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="5">
+        <v>38</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="16">
+        <v>3219</v>
+      </c>
+      <c r="E40" s="10">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="5">
+        <v>39</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="16">
+        <v>31164</v>
+      </c>
+      <c r="E41" s="10">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="5">
+        <v>40</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="16">
+        <v>16359</v>
+      </c>
+      <c r="E42" s="10">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="5">
+        <v>41</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="16">
+        <v>24812</v>
+      </c>
+      <c r="E43" s="10">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="5">
+        <v>42</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="16">
+        <v>58796</v>
+      </c>
+      <c r="E44" s="10">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="5">
+        <v>43</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="16">
+        <v>52422</v>
+      </c>
+      <c r="E45" s="10">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="5">
+        <v>44</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="16">
+        <v>42063</v>
+      </c>
+      <c r="E46" s="10">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="5">
+        <v>45</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="16">
+        <v>56578</v>
+      </c>
+      <c r="E47" s="10">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="5">
+        <v>46</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="16">
+        <v>62375</v>
+      </c>
+      <c r="E48" s="10">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="5">
+        <v>47</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="16">
+        <v>78219</v>
+      </c>
+      <c r="E49" s="10">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="5">
+        <v>48</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="16">
+        <v>94219</v>
+      </c>
+      <c r="E50" s="10">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="5">
+        <v>49</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="16">
+        <v>97938</v>
+      </c>
+      <c r="E51" s="10">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B52" s="5">
+        <v>50</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="16">
+        <v>45234</v>
+      </c>
+      <c r="E52" s="37">
+        <v>1497</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="8" max="10" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1">
+      <c r="D1" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="30">
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="16">
+        <v>41</v>
+      </c>
+      <c r="E3" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16">
+        <v>71</v>
+      </c>
+      <c r="E4" s="7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="16">
+        <v>70</v>
+      </c>
+      <c r="E5" s="7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="16">
+        <v>100</v>
+      </c>
+      <c r="E6" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="16">
+        <v>100</v>
+      </c>
+      <c r="E7" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="16">
+        <v>55</v>
+      </c>
+      <c r="E8" s="7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="5">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="16">
+        <v>98</v>
+      </c>
+      <c r="E9" s="7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="5">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="16">
+        <v>99</v>
+      </c>
+      <c r="E10" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="5">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="16">
+        <v>100</v>
+      </c>
+      <c r="E11" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="5">
+        <v>10</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="16">
+        <v>96</v>
+      </c>
+      <c r="E12" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="5">
+        <v>11</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="16">
+        <v>41</v>
+      </c>
+      <c r="E13" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="5">
+        <v>12</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="16">
+        <v>39</v>
+      </c>
+      <c r="E14" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="5">
+        <v>13</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="16">
+        <v>53</v>
+      </c>
+      <c r="E15" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="5">
+        <v>14</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="16">
+        <v>39</v>
+      </c>
+      <c r="E16" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="5">
+        <v>15</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="16">
+        <v>100</v>
+      </c>
+      <c r="E17" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="5">
+        <v>16</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="16">
+        <v>100</v>
+      </c>
+      <c r="E18" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="5">
+        <v>17</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="16">
+        <v>100</v>
+      </c>
+      <c r="E19" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="5">
+        <v>18</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="16">
+        <v>100</v>
+      </c>
+      <c r="E20" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="5">
+        <v>19</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="16">
+        <v>81</v>
+      </c>
+      <c r="E21" s="7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="5">
+        <v>20</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="16">
+        <v>98</v>
+      </c>
+      <c r="E22" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="5">
+        <v>21</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="16">
+        <v>34</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="5">
+        <v>22</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="16">
+        <v>46</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="5">
+        <v>23</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="16">
+        <v>34</v>
+      </c>
+      <c r="E25" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="5">
+        <v>24</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="16">
+        <v>31</v>
+      </c>
+      <c r="E26" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="5">
+        <v>25</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="16">
+        <v>56</v>
+      </c>
+      <c r="E27" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="5">
+        <v>26</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="16">
+        <v>68</v>
+      </c>
+      <c r="E28" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="5">
+        <v>27</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="16">
+        <v>68</v>
+      </c>
+      <c r="E29" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="5">
+        <v>28</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="16">
+        <v>96</v>
+      </c>
+      <c r="E30" s="7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="5">
+        <v>29</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="16">
+        <v>75</v>
+      </c>
+      <c r="E31" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="5">
+        <v>30</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="16">
+        <v>60</v>
+      </c>
+      <c r="E32" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="5">
+        <v>31</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="16">
+        <v>13</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="5">
+        <v>32</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="16">
+        <v>23</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="5">
+        <v>33</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="16">
+        <v>44</v>
+      </c>
+      <c r="E35" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="5">
+        <v>34</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="16">
+        <v>96</v>
+      </c>
+      <c r="E36" s="7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="5">
+        <v>35</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="16">
+        <v>60</v>
+      </c>
+      <c r="E37" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="5">
+        <v>36</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="16">
+        <v>40</v>
+      </c>
+      <c r="E38" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="5">
+        <v>37</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="16">
+        <v>69</v>
+      </c>
+      <c r="E39" s="7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="5">
+        <v>38</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="16">
+        <v>90</v>
+      </c>
+      <c r="E40" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="5">
+        <v>39</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="16">
+        <v>56</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="5">
+        <v>40</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="16">
+        <v>39</v>
+      </c>
+      <c r="E42" s="7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="5">
+        <v>41</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="16">
+        <v>98</v>
+      </c>
+      <c r="E43" s="7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="5">
+        <v>42</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="16">
+        <v>99</v>
+      </c>
+      <c r="E44" s="7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="5">
+        <v>43</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="16">
+        <v>96</v>
+      </c>
+      <c r="E45" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="5">
+        <v>44</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="16">
+        <v>98</v>
+      </c>
+      <c r="E46" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="5">
+        <v>45</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="16">
+        <v>98</v>
+      </c>
+      <c r="E47" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="5">
+        <v>46</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="16">
+        <v>96</v>
+      </c>
+      <c r="E48" s="7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="5">
+        <v>47</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="16">
+        <v>99</v>
+      </c>
+      <c r="E49" s="7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="5">
+        <v>48</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="16">
+        <v>100</v>
+      </c>
+      <c r="E50" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="5">
+        <v>49</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="16">
+        <v>99</v>
+      </c>
+      <c r="E51" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="5">
+        <v>50</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="16">
+        <v>38</v>
+      </c>
+      <c r="E52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>